--- a/biology/Biochimie/Pierre_Joliot/Pierre_Joliot.xlsx
+++ b/biology/Biochimie/Pierre_Joliot/Pierre_Joliot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Joliot, né le 12 mars 1932 dans le 6e arrondissement de Paris, est un biologiste français, chercheur CNRS à l'Institut de biologie physico-chimique (IBPC). Il est membre de l'Académie des sciences[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Joliot, né le 12 mars 1932 dans le 6e arrondissement de Paris, est un biologiste français, chercheur CNRS à l'Institut de biologie physico-chimique (IBPC). Il est membre de l'Académie des sciences.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Joliot est le fils de Frédéric et Irène Joliot-Curie, tous deux prix Nobel de chimie en 1935 et le petit-fils de Pierre et Marie Curie. Il est aussi le frère d'Hélène Langevin-Joliot.
 Chercheur à l'IBPC depuis 1956 — son principal point d'ancrage —, il en sera directeur de 1994 à sa retraite officielle en 2000. Dès ses débuts, il s'intéresse à la biologie de la photosynthèse, sous la direction de René Wurmser.
-Il devient directeur de recherche au CNRS en 1974. Il se spécialise en biologie et prend, entre autres, la direction du Département de biologie de l'École normale supérieure de 1987 à 1992, avant de présider le Conseil scientifique de l'École normale supérieure de Lyon. Professeur honoraire au Collège de France, ancien titulaire de la chaire de bioénergétique cellulaire et membre de l'Académie des sciences, et de la National Academy of Sciences américaine, sa carrière est jalonnée de succès. Il reçoit le Prix du Commissariat à l'Énergie Atomique en 1980, ainsi que la médaille d'or du CNRS en 1982[2].
-Il est professeur au Collège de France et membre de l’Académie des sciences de France[1] et des États-Unis.
-De 1998 à 2001, il préside le Comité d'éthique du CNRS[3]. De 1994 à 2000, il est membre du conseil d'administration de la Fondation Hugot du Collège de France.
+Il devient directeur de recherche au CNRS en 1974. Il se spécialise en biologie et prend, entre autres, la direction du Département de biologie de l'École normale supérieure de 1987 à 1992, avant de présider le Conseil scientifique de l'École normale supérieure de Lyon. Professeur honoraire au Collège de France, ancien titulaire de la chaire de bioénergétique cellulaire et membre de l'Académie des sciences, et de la National Academy of Sciences américaine, sa carrière est jalonnée de succès. Il reçoit le Prix du Commissariat à l'Énergie Atomique en 1980, ainsi que la médaille d'or du CNRS en 1982.
+Il est professeur au Collège de France et membre de l’Académie des sciences de France et des États-Unis.
+De 1998 à 2001, il préside le Comité d'éthique du CNRS. De 1994 à 2000, il est membre du conseil d'administration de la Fondation Hugot du Collège de France.
 En 2002, il a publié une œuvre présentant sa conception de la recherche, La Recherche passionnément.
-Il a eu deux fils avec Anne Gricouroff, l'une des filles de Georges Gricouroff : Marc Joliot, chercheur en neurosciences[4], et Alain Joliot, biologiste.
+Il a eu deux fils avec Anne Gricouroff, l'une des filles de Georges Gricouroff : Marc Joliot, chercheur en neurosciences, et Alain Joliot, biologiste.
 </t>
         </is>
       </c>
@@ -548,17 +562,19 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix André Policard-Lacassagne (1968)
 Prix Charles F. Kettering de l’American Society of Plant Physiologists (1970)
 Membre étranger de la National Academy of Sciences, États-Unis (1979)
 Prix du Commissariat à l'Énergie Atomique (1980)
 Médaille d'or du CNRS (1982)
-Membre de l’Academia Europaea (1989)[5]
-Membre de l’Académie européenne des sciences, des arts et des lettres (1992)[6]
+Membre de l’Academia Europaea (1989)
+Membre de l’Académie européenne des sciences, des arts et des lettres (1992)
  Commandeur de l'ordre national du Mérite (2001)
- Grand officier de la Légion d'honneur, décret du 13 juillet 2012[7]</t>
+ Grand officier de la Légion d'honneur, décret du 13 juillet 2012</t>
         </is>
       </c>
     </row>
@@ -586,7 +602,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Contribution à l'étude des phénomènes d'induction de la photosynthèse, thèse de doctorat, 1961.
 Qu'est-ce-que la vie? de Jean-Marie Coldefy, avec René Buvet, André Lwoff et François Russo, Paris, Bry-sur-Marne, ORTF, INA, 1975.
